--- a/example/Topic/60/LG/6040i10/Sorted.xlsx
+++ b/example/Topic/60/LG/6040i10/Sorted.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EDU\files\2013\example\Topic\60\LG\6040i10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C0C34FE-A113-47FF-B7DF-D082FAC5754D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F27EC81-15D1-4001-88FE-EE2F00A9FF2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{625FED44-D964-483B-96E7-B92D0BBEDEF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{625FED44-D964-483B-96E7-B92D0BBEDEF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="435">
   <si>
     <t>22,8</t>
   </si>
@@ -1689,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A6B3F-2440-426F-8C8B-AEDC1E4D5E6A}">
   <dimension ref="A1:B435"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B435"/>
+    <sheetView topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5178,4 +5180,6131 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FD05AD-BC25-4D46-B1B5-2E3B8C7AC019}">
+  <dimension ref="A1:PS2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="PS2" sqref="A1:PS2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:435" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M1" t="s">
+        <v>370</v>
+      </c>
+      <c r="N1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O1" t="s">
+        <v>359</v>
+      </c>
+      <c r="P1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>332</v>
+      </c>
+      <c r="R1" t="s">
+        <v>351</v>
+      </c>
+      <c r="S1" t="s">
+        <v>326</v>
+      </c>
+      <c r="T1" t="s">
+        <v>346</v>
+      </c>
+      <c r="U1" t="s">
+        <v>341</v>
+      </c>
+      <c r="V1" t="s">
+        <v>303</v>
+      </c>
+      <c r="W1" t="s">
+        <v>310</v>
+      </c>
+      <c r="X1" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>178</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>215</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>272</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>180</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>211</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>290</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>274</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>59</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>77</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>81</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>313</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>371</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>251</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>245</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>188</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>270</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>100</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>80</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>68</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>105</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>53</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>111</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>380</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>362</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>331</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>307</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>315</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>232</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>258</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>204</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>167</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>9</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>89</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>86</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>23</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>102</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>153</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>25</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>424</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>383</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>399</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>372</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>293</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>345</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>271</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>35</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>17</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>11</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>40</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>31</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>18</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>44</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>41</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>423</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>400</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>397</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>369</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>350</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>309</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>302</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>162</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>265</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>228</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>99</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>79</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>118</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>30</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>72</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>19</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>34</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>425</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>144</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>412</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>398</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>389</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>363</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>344</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>322</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>317</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>288</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>78</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>195</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>200</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>65</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>62</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>75</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>58</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>26</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>431</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>14</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>98</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>416</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>408</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>381</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>378</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>340</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>286</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>339</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>304</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>253</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>259</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>220</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>164</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>173</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>125</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>56</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>46</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>55</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>82</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>427</v>
+      </c>
+      <c r="II1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>5</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>419</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>406</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>387</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>368</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>352</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>343</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>325</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>308</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>205</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>235</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>174</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>172</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>108</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>126</v>
+      </c>
+      <c r="JA1" t="s">
+        <v>43</v>
+      </c>
+      <c r="JB1" t="s">
+        <v>92</v>
+      </c>
+      <c r="JC1" t="s">
+        <v>71</v>
+      </c>
+      <c r="JD1" t="s">
+        <v>428</v>
+      </c>
+      <c r="JE1" t="s">
+        <v>39</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>16</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>63</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>66</v>
+      </c>
+      <c r="JI1" t="s">
+        <v>420</v>
+      </c>
+      <c r="JJ1" t="s">
+        <v>405</v>
+      </c>
+      <c r="JK1" t="s">
+        <v>392</v>
+      </c>
+      <c r="JL1" t="s">
+        <v>364</v>
+      </c>
+      <c r="JM1" t="s">
+        <v>348</v>
+      </c>
+      <c r="JN1" t="s">
+        <v>320</v>
+      </c>
+      <c r="JO1" t="s">
+        <v>294</v>
+      </c>
+      <c r="JP1" t="s">
+        <v>314</v>
+      </c>
+      <c r="JQ1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JR1" t="s">
+        <v>287</v>
+      </c>
+      <c r="JS1" t="s">
+        <v>189</v>
+      </c>
+      <c r="JT1" t="s">
+        <v>202</v>
+      </c>
+      <c r="JU1" t="s">
+        <v>234</v>
+      </c>
+      <c r="JV1" t="s">
+        <v>146</v>
+      </c>
+      <c r="JW1" t="s">
+        <v>156</v>
+      </c>
+      <c r="JX1" t="s">
+        <v>32</v>
+      </c>
+      <c r="JY1" t="s">
+        <v>120</v>
+      </c>
+      <c r="JZ1" t="s">
+        <v>106</v>
+      </c>
+      <c r="KA1" t="s">
+        <v>430</v>
+      </c>
+      <c r="KB1" t="s">
+        <v>33</v>
+      </c>
+      <c r="KC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="KD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="KE1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF1" t="s">
+        <v>22</v>
+      </c>
+      <c r="KG1" t="s">
+        <v>422</v>
+      </c>
+      <c r="KH1" t="s">
+        <v>409</v>
+      </c>
+      <c r="KI1" t="s">
+        <v>388</v>
+      </c>
+      <c r="KJ1" t="s">
+        <v>384</v>
+      </c>
+      <c r="KK1" t="s">
+        <v>358</v>
+      </c>
+      <c r="KL1" t="s">
+        <v>353</v>
+      </c>
+      <c r="KM1" t="s">
+        <v>321</v>
+      </c>
+      <c r="KN1" t="s">
+        <v>329</v>
+      </c>
+      <c r="KO1" t="s">
+        <v>230</v>
+      </c>
+      <c r="KP1" t="s">
+        <v>254</v>
+      </c>
+      <c r="KQ1" t="s">
+        <v>263</v>
+      </c>
+      <c r="KR1" t="s">
+        <v>238</v>
+      </c>
+      <c r="KS1" t="s">
+        <v>165</v>
+      </c>
+      <c r="KT1" t="s">
+        <v>224</v>
+      </c>
+      <c r="KU1" t="s">
+        <v>143</v>
+      </c>
+      <c r="KV1" t="s">
+        <v>116</v>
+      </c>
+      <c r="KW1" t="s">
+        <v>95</v>
+      </c>
+      <c r="KX1" t="s">
+        <v>122</v>
+      </c>
+      <c r="KY1" t="s">
+        <v>433</v>
+      </c>
+      <c r="KZ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="LA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="LB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="LC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="LD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="LE1" t="s">
+        <v>13</v>
+      </c>
+      <c r="LF1" t="s">
+        <v>415</v>
+      </c>
+      <c r="LG1" t="s">
+        <v>401</v>
+      </c>
+      <c r="LH1" t="s">
+        <v>386</v>
+      </c>
+      <c r="LI1" t="s">
+        <v>377</v>
+      </c>
+      <c r="LJ1" t="s">
+        <v>347</v>
+      </c>
+      <c r="LK1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LL1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LM1" t="s">
+        <v>342</v>
+      </c>
+      <c r="LN1" t="s">
+        <v>278</v>
+      </c>
+      <c r="LO1" t="s">
+        <v>268</v>
+      </c>
+      <c r="LP1" t="s">
+        <v>275</v>
+      </c>
+      <c r="LQ1" t="s">
+        <v>198</v>
+      </c>
+      <c r="LR1" t="s">
+        <v>154</v>
+      </c>
+      <c r="LS1" t="s">
+        <v>175</v>
+      </c>
+      <c r="LT1" t="s">
+        <v>192</v>
+      </c>
+      <c r="LU1" t="s">
+        <v>145</v>
+      </c>
+      <c r="LV1" t="s">
+        <v>93</v>
+      </c>
+      <c r="LW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="LX1" t="s">
+        <v>426</v>
+      </c>
+      <c r="LY1" t="s">
+        <v>131</v>
+      </c>
+      <c r="LZ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="MA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="MB1" t="s">
+        <v>57</v>
+      </c>
+      <c r="MC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="MD1" t="s">
+        <v>24</v>
+      </c>
+      <c r="ME1" t="s">
+        <v>6</v>
+      </c>
+      <c r="MF1" t="s">
+        <v>418</v>
+      </c>
+      <c r="MG1" t="s">
+        <v>402</v>
+      </c>
+      <c r="MH1" t="s">
+        <v>385</v>
+      </c>
+      <c r="MI1" t="s">
+        <v>382</v>
+      </c>
+      <c r="MJ1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MK1" t="s">
+        <v>337</v>
+      </c>
+      <c r="ML1" t="s">
+        <v>335</v>
+      </c>
+      <c r="MM1" t="s">
+        <v>301</v>
+      </c>
+      <c r="MN1" t="s">
+        <v>305</v>
+      </c>
+      <c r="MO1" t="s">
+        <v>248</v>
+      </c>
+      <c r="MP1" t="s">
+        <v>197</v>
+      </c>
+      <c r="MQ1" t="s">
+        <v>222</v>
+      </c>
+      <c r="MR1" t="s">
+        <v>212</v>
+      </c>
+      <c r="MS1" t="s">
+        <v>169</v>
+      </c>
+      <c r="MT1" t="s">
+        <v>129</v>
+      </c>
+      <c r="MU1" t="s">
+        <v>210</v>
+      </c>
+      <c r="MV1" t="s">
+        <v>121</v>
+      </c>
+      <c r="MW1" t="s">
+        <v>91</v>
+      </c>
+      <c r="MX1" t="s">
+        <v>429</v>
+      </c>
+      <c r="MY1" t="s">
+        <v>101</v>
+      </c>
+      <c r="MZ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="NA1" t="s">
+        <v>45</v>
+      </c>
+      <c r="NB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="NC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="ND1" t="s">
+        <v>8</v>
+      </c>
+      <c r="NE1" t="s">
+        <v>10</v>
+      </c>
+      <c r="NF1" t="s">
+        <v>97</v>
+      </c>
+      <c r="NG1" t="s">
+        <v>417</v>
+      </c>
+      <c r="NH1" t="s">
+        <v>407</v>
+      </c>
+      <c r="NI1" t="s">
+        <v>393</v>
+      </c>
+      <c r="NJ1" t="s">
+        <v>365</v>
+      </c>
+      <c r="NK1" t="s">
+        <v>349</v>
+      </c>
+      <c r="NL1" t="s">
+        <v>356</v>
+      </c>
+      <c r="NM1" t="s">
+        <v>336</v>
+      </c>
+      <c r="NN1" t="s">
+        <v>311</v>
+      </c>
+      <c r="NO1" t="s">
+        <v>282</v>
+      </c>
+      <c r="NP1" t="s">
+        <v>257</v>
+      </c>
+      <c r="NQ1" t="s">
+        <v>207</v>
+      </c>
+      <c r="NR1" t="s">
+        <v>226</v>
+      </c>
+      <c r="NS1" t="s">
+        <v>187</v>
+      </c>
+      <c r="NT1" t="s">
+        <v>183</v>
+      </c>
+      <c r="NU1" t="s">
+        <v>184</v>
+      </c>
+      <c r="NV1" t="s">
+        <v>137</v>
+      </c>
+      <c r="NW1" t="s">
+        <v>176</v>
+      </c>
+      <c r="NX1" t="s">
+        <v>177</v>
+      </c>
+      <c r="NY1" t="s">
+        <v>434</v>
+      </c>
+      <c r="NZ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="OA1" t="s">
+        <v>117</v>
+      </c>
+      <c r="OB1" t="s">
+        <v>64</v>
+      </c>
+      <c r="OC1" t="s">
+        <v>21</v>
+      </c>
+      <c r="OD1" t="s">
+        <v>128</v>
+      </c>
+      <c r="OE1" t="s">
+        <v>48</v>
+      </c>
+      <c r="OF1" t="s">
+        <v>47</v>
+      </c>
+      <c r="OG1" t="s">
+        <v>60</v>
+      </c>
+      <c r="OH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="OI1" t="s">
+        <v>414</v>
+      </c>
+      <c r="OJ1" t="s">
+        <v>404</v>
+      </c>
+      <c r="OK1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OL1" t="s">
+        <v>367</v>
+      </c>
+      <c r="OM1" t="s">
+        <v>355</v>
+      </c>
+      <c r="ON1" t="s">
+        <v>330</v>
+      </c>
+      <c r="OO1" t="s">
+        <v>328</v>
+      </c>
+      <c r="OP1" t="s">
+        <v>316</v>
+      </c>
+      <c r="OQ1" t="s">
+        <v>279</v>
+      </c>
+      <c r="OR1" t="s">
+        <v>266</v>
+      </c>
+      <c r="OS1" t="s">
+        <v>241</v>
+      </c>
+      <c r="OT1" t="s">
+        <v>186</v>
+      </c>
+      <c r="OU1" t="s">
+        <v>269</v>
+      </c>
+      <c r="OV1" t="s">
+        <v>149</v>
+      </c>
+      <c r="OW1" t="s">
+        <v>151</v>
+      </c>
+      <c r="OX1" t="s">
+        <v>138</v>
+      </c>
+      <c r="OY1" t="s">
+        <v>152</v>
+      </c>
+      <c r="OZ1" t="s">
+        <v>85</v>
+      </c>
+      <c r="PA1" t="s">
+        <v>432</v>
+      </c>
+      <c r="PB1" t="s">
+        <v>84</v>
+      </c>
+      <c r="PC1" t="s">
+        <v>157</v>
+      </c>
+      <c r="PD1" t="s">
+        <v>135</v>
+      </c>
+      <c r="PE1" t="s">
+        <v>109</v>
+      </c>
+      <c r="PF1" t="s">
+        <v>127</v>
+      </c>
+      <c r="PG1" t="s">
+        <v>27</v>
+      </c>
+      <c r="PH1" t="s">
+        <v>70</v>
+      </c>
+      <c r="PI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PJ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="PK1" t="s">
+        <v>7</v>
+      </c>
+      <c r="PL1" t="s">
+        <v>421</v>
+      </c>
+      <c r="PM1" t="s">
+        <v>403</v>
+      </c>
+      <c r="PN1" t="s">
+        <v>390</v>
+      </c>
+      <c r="PO1" t="s">
+        <v>375</v>
+      </c>
+      <c r="PP1" t="s">
+        <v>357</v>
+      </c>
+      <c r="PQ1" t="s">
+        <v>338</v>
+      </c>
+      <c r="PR1" t="s">
+        <v>295</v>
+      </c>
+      <c r="PS1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:435" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8.9710541753458897E-3</v>
+      </c>
+      <c r="B2">
+        <v>8.0548079414554993E-3</v>
+      </c>
+      <c r="C2">
+        <v>8.0875849026964593E-3</v>
+      </c>
+      <c r="D2">
+        <v>7.2020243068418796E-3</v>
+      </c>
+      <c r="E2">
+        <v>7.2377794625461999E-3</v>
+      </c>
+      <c r="F2">
+        <v>7.0968570007037702E-3</v>
+      </c>
+      <c r="G2">
+        <v>6.41723349146803E-3</v>
+      </c>
+      <c r="H2">
+        <v>6.4892534603845503E-3</v>
+      </c>
+      <c r="I2">
+        <v>6.4424502677184999E-3</v>
+      </c>
+      <c r="J2">
+        <v>6.1651704796814796E-3</v>
+      </c>
+      <c r="K2">
+        <v>5.9153295618665797E-3</v>
+      </c>
+      <c r="L2">
+        <v>5.9294268398514399E-3</v>
+      </c>
+      <c r="M2">
+        <v>5.9523851260831796E-3</v>
+      </c>
+      <c r="N2">
+        <v>5.9393968220033001E-3</v>
+      </c>
+      <c r="O2">
+        <v>5.9090200632007902E-3</v>
+      </c>
+      <c r="P2">
+        <v>5.5229893818528296E-3</v>
+      </c>
+      <c r="Q2">
+        <v>5.5281648030436701E-3</v>
+      </c>
+      <c r="R2">
+        <v>5.5722537815938297E-3</v>
+      </c>
+      <c r="S2">
+        <v>5.4566170419690103E-3</v>
+      </c>
+      <c r="T2">
+        <v>5.53035315050294E-3</v>
+      </c>
+      <c r="U2">
+        <v>5.3948281291395497E-3</v>
+      </c>
+      <c r="V2">
+        <v>5.26996536583948E-3</v>
+      </c>
+      <c r="W2">
+        <v>5.2547000877595602E-3</v>
+      </c>
+      <c r="X2">
+        <v>5.3057437170406603E-3</v>
+      </c>
+      <c r="Y2">
+        <v>5.2495698189376997E-3</v>
+      </c>
+      <c r="Z2">
+        <v>5.1781291032340897E-3</v>
+      </c>
+      <c r="AA2">
+        <v>5.16603319787696E-3</v>
+      </c>
+      <c r="AB2">
+        <v>5.2256127289932799E-3</v>
+      </c>
+      <c r="AC2">
+        <v>4.9904320567695903E-3</v>
+      </c>
+      <c r="AD2">
+        <v>5.04511588166683E-3</v>
+      </c>
+      <c r="AE2">
+        <v>4.9014007633039099E-3</v>
+      </c>
+      <c r="AF2">
+        <v>5.0232388265735997E-3</v>
+      </c>
+      <c r="AG2">
+        <v>5.00415482367275E-3</v>
+      </c>
+      <c r="AH2">
+        <v>4.8963093415627396E-3</v>
+      </c>
+      <c r="AI2">
+        <v>4.9322134482981802E-3</v>
+      </c>
+      <c r="AJ2">
+        <v>4.8774085431790501E-3</v>
+      </c>
+      <c r="AK2">
+        <v>4.7947681799251898E-3</v>
+      </c>
+      <c r="AL2">
+        <v>4.7972674274168597E-3</v>
+      </c>
+      <c r="AM2">
+        <v>4.7502440222449401E-3</v>
+      </c>
+      <c r="AN2">
+        <v>4.7232901749344001E-3</v>
+      </c>
+      <c r="AO2">
+        <v>4.72546412615965E-3</v>
+      </c>
+      <c r="AP2">
+        <v>4.7146654298044002E-3</v>
+      </c>
+      <c r="AQ2">
+        <v>4.7954117195581998E-3</v>
+      </c>
+      <c r="AR2">
+        <v>4.6667802115378902E-3</v>
+      </c>
+      <c r="AS2">
+        <v>4.7268360796071801E-3</v>
+      </c>
+      <c r="AT2">
+        <v>4.5588672109393097E-3</v>
+      </c>
+      <c r="AU2">
+        <v>4.5211312168583701E-3</v>
+      </c>
+      <c r="AV2">
+        <v>4.68959387116776E-3</v>
+      </c>
+      <c r="AW2">
+        <v>4.6017013748351002E-3</v>
+      </c>
+      <c r="AX2">
+        <v>4.57946606634849E-3</v>
+      </c>
+      <c r="AY2">
+        <v>4.5891367376919203E-3</v>
+      </c>
+      <c r="AZ2">
+        <v>4.5456020364546901E-3</v>
+      </c>
+      <c r="BA2">
+        <v>4.55489259651561E-3</v>
+      </c>
+      <c r="BB2">
+        <v>4.5923765025782902E-3</v>
+      </c>
+      <c r="BC2">
+        <v>4.49679514812265E-3</v>
+      </c>
+      <c r="BD2">
+        <v>4.3580372122961602E-3</v>
+      </c>
+      <c r="BE2">
+        <v>4.3780468449078199E-3</v>
+      </c>
+      <c r="BF2">
+        <v>4.4351187560202699E-3</v>
+      </c>
+      <c r="BG2">
+        <v>4.5358220245374399E-3</v>
+      </c>
+      <c r="BH2">
+        <v>4.4395187849290401E-3</v>
+      </c>
+      <c r="BI2">
+        <v>4.5221194211746201E-3</v>
+      </c>
+      <c r="BJ2">
+        <v>4.3844235167014396E-3</v>
+      </c>
+      <c r="BK2">
+        <v>4.4919967716376798E-3</v>
+      </c>
+      <c r="BL2">
+        <v>4.3745303146348197E-3</v>
+      </c>
+      <c r="BM2">
+        <v>4.2565696492132803E-3</v>
+      </c>
+      <c r="BN2">
+        <v>4.3554970724531796E-3</v>
+      </c>
+      <c r="BO2">
+        <v>4.2707180366799904E-3</v>
+      </c>
+      <c r="BP2">
+        <v>4.2999074847250296E-3</v>
+      </c>
+      <c r="BQ2">
+        <v>4.3028328605926001E-3</v>
+      </c>
+      <c r="BR2">
+        <v>4.4034434464306103E-3</v>
+      </c>
+      <c r="BS2">
+        <v>4.4445272090690904E-3</v>
+      </c>
+      <c r="BT2">
+        <v>4.3744114384927204E-3</v>
+      </c>
+      <c r="BU2">
+        <v>4.3410303832081198E-3</v>
+      </c>
+      <c r="BV2">
+        <v>4.2890768920077404E-3</v>
+      </c>
+      <c r="BW2">
+        <v>4.2377035825154896E-3</v>
+      </c>
+      <c r="BX2">
+        <v>4.3133313441981501E-3</v>
+      </c>
+      <c r="BY2">
+        <v>4.2333250830166001E-3</v>
+      </c>
+      <c r="BZ2">
+        <v>4.1304959418133596E-3</v>
+      </c>
+      <c r="CA2">
+        <v>4.1159136301772096E-3</v>
+      </c>
+      <c r="CB2">
+        <v>4.15564680650269E-3</v>
+      </c>
+      <c r="CC2">
+        <v>4.2432864014104697E-3</v>
+      </c>
+      <c r="CD2">
+        <v>4.3693833030677897E-3</v>
+      </c>
+      <c r="CE2">
+        <v>4.4091970583188698E-3</v>
+      </c>
+      <c r="CF2">
+        <v>4.4933192059957404E-3</v>
+      </c>
+      <c r="CG2">
+        <v>4.4440250737438703E-3</v>
+      </c>
+      <c r="CH2">
+        <v>4.3085007714615802E-3</v>
+      </c>
+      <c r="CI2">
+        <v>4.2229316396482997E-3</v>
+      </c>
+      <c r="CJ2">
+        <v>4.2502493242610904E-3</v>
+      </c>
+      <c r="CK2">
+        <v>4.1559144706172597E-3</v>
+      </c>
+      <c r="CL2">
+        <v>4.0766072093834198E-3</v>
+      </c>
+      <c r="CM2">
+        <v>4.1940701129019502E-3</v>
+      </c>
+      <c r="CN2">
+        <v>3.9496722206685299E-3</v>
+      </c>
+      <c r="CO2">
+        <v>4.0455273806412799E-3</v>
+      </c>
+      <c r="CP2">
+        <v>4.0608821561032302E-3</v>
+      </c>
+      <c r="CQ2">
+        <v>4.0631857452859297E-3</v>
+      </c>
+      <c r="CR2">
+        <v>4.0955281864436298E-3</v>
+      </c>
+      <c r="CS2">
+        <v>4.6068851210676097E-3</v>
+      </c>
+      <c r="CT2">
+        <v>4.5534771406957799E-3</v>
+      </c>
+      <c r="CU2">
+        <v>4.3683810810881E-3</v>
+      </c>
+      <c r="CV2">
+        <v>4.2007075729893796E-3</v>
+      </c>
+      <c r="CW2">
+        <v>4.1837043152443201E-3</v>
+      </c>
+      <c r="CX2">
+        <v>4.1826839132132103E-3</v>
+      </c>
+      <c r="CY2">
+        <v>3.9953220549342298E-3</v>
+      </c>
+      <c r="CZ2">
+        <v>4.0339535849816801E-3</v>
+      </c>
+      <c r="DA2">
+        <v>3.9934588217536903E-3</v>
+      </c>
+      <c r="DB2">
+        <v>3.8343745193751598E-3</v>
+      </c>
+      <c r="DC2">
+        <v>3.8669056179951298E-3</v>
+      </c>
+      <c r="DD2">
+        <v>3.8996139274680699E-3</v>
+      </c>
+      <c r="DE2">
+        <v>4.0080288664475503E-3</v>
+      </c>
+      <c r="DF2">
+        <v>4.1003150266759603E-3</v>
+      </c>
+      <c r="DG2">
+        <v>4.02477675467425E-3</v>
+      </c>
+      <c r="DH2">
+        <v>4.81953290933797E-3</v>
+      </c>
+      <c r="DI2">
+        <v>4.6021966159842101E-3</v>
+      </c>
+      <c r="DJ2">
+        <v>4.5695767234101396E-3</v>
+      </c>
+      <c r="DK2">
+        <v>4.4103681920082301E-3</v>
+      </c>
+      <c r="DL2">
+        <v>4.3646695552238398E-3</v>
+      </c>
+      <c r="DM2">
+        <v>4.1097711075403203E-3</v>
+      </c>
+      <c r="DN2">
+        <v>3.9356786364524296E-3</v>
+      </c>
+      <c r="DO2">
+        <v>3.9455588471735198E-3</v>
+      </c>
+      <c r="DP2">
+        <v>3.89166377072308E-3</v>
+      </c>
+      <c r="DQ2">
+        <v>3.8670482182194201E-3</v>
+      </c>
+      <c r="DR2">
+        <v>3.89577014999779E-3</v>
+      </c>
+      <c r="DS2">
+        <v>3.8615968917825199E-3</v>
+      </c>
+      <c r="DT2">
+        <v>3.9147736580324704E-3</v>
+      </c>
+      <c r="DU2">
+        <v>3.9327415137709598E-3</v>
+      </c>
+      <c r="DV2">
+        <v>3.9394755246304801E-3</v>
+      </c>
+      <c r="DW2">
+        <v>3.9971920079879299E-3</v>
+      </c>
+      <c r="DX2">
+        <v>6.1987578644430597E-3</v>
+      </c>
+      <c r="DY2">
+        <v>5.39960727155059E-3</v>
+      </c>
+      <c r="DZ2">
+        <v>5.1475659978535496E-3</v>
+      </c>
+      <c r="EA2">
+        <v>4.6795558206582698E-3</v>
+      </c>
+      <c r="EB2">
+        <v>4.4311391901251003E-3</v>
+      </c>
+      <c r="EC2">
+        <v>4.2683273311687302E-3</v>
+      </c>
+      <c r="ED2">
+        <v>4.00735409192551E-3</v>
+      </c>
+      <c r="EE2">
+        <v>4.0471208051627901E-3</v>
+      </c>
+      <c r="EF2">
+        <v>3.9191996716643196E-3</v>
+      </c>
+      <c r="EG2">
+        <v>3.8328604127266198E-3</v>
+      </c>
+      <c r="EH2">
+        <v>3.8585133340855002E-3</v>
+      </c>
+      <c r="EI2">
+        <v>3.7948428449661102E-3</v>
+      </c>
+      <c r="EJ2">
+        <v>3.7843222657137801E-3</v>
+      </c>
+      <c r="EK2">
+        <v>3.7847662160098898E-3</v>
+      </c>
+      <c r="EL2">
+        <v>3.8716257965480602E-3</v>
+      </c>
+      <c r="EM2">
+        <v>3.88570753000223E-3</v>
+      </c>
+      <c r="EN2">
+        <v>3.8722645576835702E-3</v>
+      </c>
+      <c r="EO2">
+        <v>7.3273839308379699E-3</v>
+      </c>
+      <c r="EP2">
+        <v>6.2734833220726696E-3</v>
+      </c>
+      <c r="EQ2">
+        <v>5.6398934593674503E-3</v>
+      </c>
+      <c r="ER2">
+        <v>5.2956786999055301E-3</v>
+      </c>
+      <c r="ES2">
+        <v>4.7545540568913504E-3</v>
+      </c>
+      <c r="ET2">
+        <v>4.48825926010694E-3</v>
+      </c>
+      <c r="EU2">
+        <v>4.1797415834140903E-3</v>
+      </c>
+      <c r="EV2">
+        <v>4.0702533663490702E-3</v>
+      </c>
+      <c r="EW2">
+        <v>4.0280667563459497E-3</v>
+      </c>
+      <c r="EX2">
+        <v>4.0059531877548503E-3</v>
+      </c>
+      <c r="EY2">
+        <v>3.9255990804805E-3</v>
+      </c>
+      <c r="EZ2">
+        <v>3.7783293471858399E-3</v>
+      </c>
+      <c r="FA2">
+        <v>3.7817116381486E-3</v>
+      </c>
+      <c r="FB2">
+        <v>3.7589278264846E-3</v>
+      </c>
+      <c r="FC2">
+        <v>3.7141967647076899E-3</v>
+      </c>
+      <c r="FD2">
+        <v>3.8421492279293399E-3</v>
+      </c>
+      <c r="FE2">
+        <v>3.8894661903527E-3</v>
+      </c>
+      <c r="FF2">
+        <v>3.8355011311248101E-3</v>
+      </c>
+      <c r="FG2">
+        <v>8.9684957055789893E-3</v>
+      </c>
+      <c r="FH2">
+        <v>7.8375768900863906E-3</v>
+      </c>
+      <c r="FI2">
+        <v>6.7649184898611603E-3</v>
+      </c>
+      <c r="FJ2">
+        <v>5.8713015592403699E-3</v>
+      </c>
+      <c r="FK2">
+        <v>5.2375100407871704E-3</v>
+      </c>
+      <c r="FL2">
+        <v>4.9086198612784196E-3</v>
+      </c>
+      <c r="FM2">
+        <v>4.6563376093247E-3</v>
+      </c>
+      <c r="FN2">
+        <v>4.2582332250923997E-3</v>
+      </c>
+      <c r="FO2">
+        <v>4.1891367624178897E-3</v>
+      </c>
+      <c r="FP2">
+        <v>4.1512590954837997E-3</v>
+      </c>
+      <c r="FQ2">
+        <v>4.0245843493587003E-3</v>
+      </c>
+      <c r="FR2">
+        <v>3.8461146722652498E-3</v>
+      </c>
+      <c r="FS2">
+        <v>3.7678529626161499E-3</v>
+      </c>
+      <c r="FT2">
+        <v>3.70116156898736E-3</v>
+      </c>
+      <c r="FU2">
+        <v>3.73840320868818E-3</v>
+      </c>
+      <c r="FV2">
+        <v>3.6611392748186599E-3</v>
+      </c>
+      <c r="FW2">
+        <v>3.7671171825599602E-3</v>
+      </c>
+      <c r="FX2">
+        <v>3.80865479163587E-3</v>
+      </c>
+      <c r="FY2">
+        <v>3.8336770864028299E-3</v>
+      </c>
+      <c r="FZ2">
+        <v>1.0275856657286499E-2</v>
+      </c>
+      <c r="GA2">
+        <v>7.9352162310153095E-3</v>
+      </c>
+      <c r="GB2">
+        <v>7.1610539520997104E-3</v>
+      </c>
+      <c r="GC2">
+        <v>6.6456495069731796E-3</v>
+      </c>
+      <c r="GD2">
+        <v>5.6714376921556198E-3</v>
+      </c>
+      <c r="GE2">
+        <v>5.14630021782609E-3</v>
+      </c>
+      <c r="GF2">
+        <v>4.8823819174818803E-3</v>
+      </c>
+      <c r="GG2">
+        <v>4.5939536568691697E-3</v>
+      </c>
+      <c r="GH2">
+        <v>4.2848067520928198E-3</v>
+      </c>
+      <c r="GI2">
+        <v>4.3324855002779498E-3</v>
+      </c>
+      <c r="GJ2">
+        <v>4.2697211562690799E-3</v>
+      </c>
+      <c r="GK2">
+        <v>4.0629951128328297E-3</v>
+      </c>
+      <c r="GL2">
+        <v>3.82391471628993E-3</v>
+      </c>
+      <c r="GM2">
+        <v>3.7318827025688301E-3</v>
+      </c>
+      <c r="GN2">
+        <v>3.7188680864205501E-3</v>
+      </c>
+      <c r="GO2">
+        <v>3.6771143823863999E-3</v>
+      </c>
+      <c r="GP2">
+        <v>3.6556696174898798E-3</v>
+      </c>
+      <c r="GQ2">
+        <v>3.7091041279426499E-3</v>
+      </c>
+      <c r="GR2">
+        <v>3.72569681544153E-3</v>
+      </c>
+      <c r="GS2">
+        <v>1.0959572482494601E-2</v>
+      </c>
+      <c r="GT2">
+        <v>3.8089198244260301E-3</v>
+      </c>
+      <c r="GU2">
+        <v>8.8917390576257298E-3</v>
+      </c>
+      <c r="GV2">
+        <v>7.4800587011661602E-3</v>
+      </c>
+      <c r="GW2">
+        <v>6.9581253616258004E-3</v>
+      </c>
+      <c r="GX2">
+        <v>5.9409782152134204E-3</v>
+      </c>
+      <c r="GY2">
+        <v>5.4106606357003598E-3</v>
+      </c>
+      <c r="GZ2">
+        <v>5.2438123641138298E-3</v>
+      </c>
+      <c r="HA2">
+        <v>4.9167336702488499E-3</v>
+      </c>
+      <c r="HB2">
+        <v>4.6461218787866498E-3</v>
+      </c>
+      <c r="HC2">
+        <v>4.6612981915950301E-3</v>
+      </c>
+      <c r="HD2">
+        <v>4.4090530862424303E-3</v>
+      </c>
+      <c r="HE2">
+        <v>4.2256021091096104E-3</v>
+      </c>
+      <c r="HF2">
+        <v>4.1117463978798501E-3</v>
+      </c>
+      <c r="HG2">
+        <v>3.8904864615536298E-3</v>
+      </c>
+      <c r="HH2">
+        <v>3.8687523381670001E-3</v>
+      </c>
+      <c r="HI2">
+        <v>3.6744519640041699E-3</v>
+      </c>
+      <c r="HJ2">
+        <v>3.69399453844546E-3</v>
+      </c>
+      <c r="HK2">
+        <v>3.5947724140384702E-3</v>
+      </c>
+      <c r="HL2">
+        <v>3.6276794695298698E-3</v>
+      </c>
+      <c r="HM2">
+        <v>1.1428389406506799E-2</v>
+      </c>
+      <c r="HN2">
+        <v>3.7296304840474799E-3</v>
+      </c>
+      <c r="HO2">
+        <v>3.7562986646129701E-3</v>
+      </c>
+      <c r="HP2">
+        <v>8.95379161708648E-3</v>
+      </c>
+      <c r="HQ2">
+        <v>7.9787531191264794E-3</v>
+      </c>
+      <c r="HR2">
+        <v>7.1297389619346101E-3</v>
+      </c>
+      <c r="HS2">
+        <v>6.1498869094970604E-3</v>
+      </c>
+      <c r="HT2">
+        <v>5.5417217566786497E-3</v>
+      </c>
+      <c r="HU2">
+        <v>5.3834385467974996E-3</v>
+      </c>
+      <c r="HV2">
+        <v>5.0637452579170104E-3</v>
+      </c>
+      <c r="HW2">
+        <v>4.8921800178387499E-3</v>
+      </c>
+      <c r="HX2">
+        <v>4.6215934529847003E-3</v>
+      </c>
+      <c r="HY2">
+        <v>4.4942014203455298E-3</v>
+      </c>
+      <c r="HZ2">
+        <v>4.4620535670374202E-3</v>
+      </c>
+      <c r="IA2">
+        <v>4.1937307083827497E-3</v>
+      </c>
+      <c r="IB2">
+        <v>4.0721564510370198E-3</v>
+      </c>
+      <c r="IC2">
+        <v>3.9243011482125497E-3</v>
+      </c>
+      <c r="ID2">
+        <v>3.8393972305915099E-3</v>
+      </c>
+      <c r="IE2">
+        <v>3.7201730100911599E-3</v>
+      </c>
+      <c r="IF2">
+        <v>3.6682502972738302E-3</v>
+      </c>
+      <c r="IG2">
+        <v>3.6743070334008198E-3</v>
+      </c>
+      <c r="IH2">
+        <v>1.1528578541304599E-2</v>
+      </c>
+      <c r="II2">
+        <v>3.6364799092026101E-3</v>
+      </c>
+      <c r="IJ2">
+        <v>3.66433982807072E-3</v>
+      </c>
+      <c r="IK2">
+        <v>3.68557421695619E-3</v>
+      </c>
+      <c r="IL2">
+        <v>8.9561442778733503E-3</v>
+      </c>
+      <c r="IM2">
+        <v>8.0373134260215001E-3</v>
+      </c>
+      <c r="IN2">
+        <v>7.0118718713038999E-3</v>
+      </c>
+      <c r="IO2">
+        <v>6.1231907285543702E-3</v>
+      </c>
+      <c r="IP2">
+        <v>5.69027623812838E-3</v>
+      </c>
+      <c r="IQ2">
+        <v>5.3722739886585399E-3</v>
+      </c>
+      <c r="IR2">
+        <v>5.1860957187163E-3</v>
+      </c>
+      <c r="IS2">
+        <v>5.0142578369868898E-3</v>
+      </c>
+      <c r="IT2">
+        <v>4.7993778249118997E-3</v>
+      </c>
+      <c r="IU2">
+        <v>4.6384785309467299E-3</v>
+      </c>
+      <c r="IV2">
+        <v>4.41027261255501E-3</v>
+      </c>
+      <c r="IW2">
+        <v>4.2476448617102596E-3</v>
+      </c>
+      <c r="IX2">
+        <v>4.0861010948039199E-3</v>
+      </c>
+      <c r="IY2">
+        <v>4.0495600690250502E-3</v>
+      </c>
+      <c r="IZ2">
+        <v>3.89278815164818E-3</v>
+      </c>
+      <c r="JA2">
+        <v>3.8514595865231402E-3</v>
+      </c>
+      <c r="JB2">
+        <v>3.73978102804882E-3</v>
+      </c>
+      <c r="JC2">
+        <v>3.6719669090476098E-3</v>
+      </c>
+      <c r="JD2">
+        <v>1.1674723791060399E-2</v>
+      </c>
+      <c r="JE2">
+        <v>3.6744396461350199E-3</v>
+      </c>
+      <c r="JF2">
+        <v>3.63017585490925E-3</v>
+      </c>
+      <c r="JG2">
+        <v>3.7113805348921699E-3</v>
+      </c>
+      <c r="JH2">
+        <v>3.6902261309435299E-3</v>
+      </c>
+      <c r="JI2">
+        <v>8.9681139127357999E-3</v>
+      </c>
+      <c r="JJ2">
+        <v>8.0118553291034893E-3</v>
+      </c>
+      <c r="JK2">
+        <v>7.1629922190449002E-3</v>
+      </c>
+      <c r="JL2">
+        <v>6.1243499285397601E-3</v>
+      </c>
+      <c r="JM2">
+        <v>5.7154291385619902E-3</v>
+      </c>
+      <c r="JN2">
+        <v>5.3710384737347596E-3</v>
+      </c>
+      <c r="JO2">
+        <v>5.2761451454307702E-3</v>
+      </c>
+      <c r="JP2">
+        <v>4.9272080190837196E-3</v>
+      </c>
+      <c r="JQ2">
+        <v>4.84878127307449E-3</v>
+      </c>
+      <c r="JR2">
+        <v>4.70276663407027E-3</v>
+      </c>
+      <c r="JS2">
+        <v>4.4335652787636601E-3</v>
+      </c>
+      <c r="JT2">
+        <v>4.4199313481870098E-3</v>
+      </c>
+      <c r="JU2">
+        <v>4.2877059182611999E-3</v>
+      </c>
+      <c r="JV2">
+        <v>4.0748873159321998E-3</v>
+      </c>
+      <c r="JW2">
+        <v>3.90261887326476E-3</v>
+      </c>
+      <c r="JX2">
+        <v>3.9060223121352099E-3</v>
+      </c>
+      <c r="JY2">
+        <v>3.9073275703127297E-3</v>
+      </c>
+      <c r="JZ2">
+        <v>3.8149437395552399E-3</v>
+      </c>
+      <c r="KA2">
+        <v>1.16747195272052E-2</v>
+      </c>
+      <c r="KB2">
+        <v>3.6453853005586601E-3</v>
+      </c>
+      <c r="KC2">
+        <v>3.7486432362933502E-3</v>
+      </c>
+      <c r="KD2">
+        <v>3.6143003708274798E-3</v>
+      </c>
+      <c r="KE2">
+        <v>3.5970444244966498E-3</v>
+      </c>
+      <c r="KF2">
+        <v>3.6867569455129499E-3</v>
+      </c>
+      <c r="KG2">
+        <v>9.0640556883944401E-3</v>
+      </c>
+      <c r="KH2">
+        <v>8.0056315324775595E-3</v>
+      </c>
+      <c r="KI2">
+        <v>7.0349078416975103E-3</v>
+      </c>
+      <c r="KJ2">
+        <v>6.2744971483976097E-3</v>
+      </c>
+      <c r="KK2">
+        <v>5.8241811062669504E-3</v>
+      </c>
+      <c r="KL2">
+        <v>5.5425631773101097E-3</v>
+      </c>
+      <c r="KM2">
+        <v>5.2386746178139602E-3</v>
+      </c>
+      <c r="KN2">
+        <v>4.9964875978158897E-3</v>
+      </c>
+      <c r="KO2">
+        <v>4.7757040999149699E-3</v>
+      </c>
+      <c r="KP2">
+        <v>4.6142322495165899E-3</v>
+      </c>
+      <c r="KQ2">
+        <v>4.5621463014942397E-3</v>
+      </c>
+      <c r="KR2">
+        <v>4.3909889039671799E-3</v>
+      </c>
+      <c r="KS2">
+        <v>4.18799670029627E-3</v>
+      </c>
+      <c r="KT2">
+        <v>4.1513299957736697E-3</v>
+      </c>
+      <c r="KU2">
+        <v>4.0549004996227999E-3</v>
+      </c>
+      <c r="KV2">
+        <v>3.9893457727079498E-3</v>
+      </c>
+      <c r="KW2">
+        <v>3.97727176891701E-3</v>
+      </c>
+      <c r="KX2">
+        <v>3.8423286115042699E-3</v>
+      </c>
+      <c r="KY2">
+        <v>1.16747227370241E-2</v>
+      </c>
+      <c r="KZ2">
+        <v>3.7217640246044602E-3</v>
+      </c>
+      <c r="LA2">
+        <v>3.73140470956308E-3</v>
+      </c>
+      <c r="LB2">
+        <v>3.6690628285257201E-3</v>
+      </c>
+      <c r="LC2">
+        <v>3.6321998392280499E-3</v>
+      </c>
+      <c r="LD2">
+        <v>3.58112909399802E-3</v>
+      </c>
+      <c r="LE2">
+        <v>3.6454914164063298E-3</v>
+      </c>
+      <c r="LF2">
+        <v>8.9681660081467798E-3</v>
+      </c>
+      <c r="LG2">
+        <v>7.9545413536587194E-3</v>
+      </c>
+      <c r="LH2">
+        <v>7.09736686908092E-3</v>
+      </c>
+      <c r="LI2">
+        <v>6.3662366878478004E-3</v>
+      </c>
+      <c r="LJ2">
+        <v>5.7903196096659596E-3</v>
+      </c>
+      <c r="LK2">
+        <v>5.4784758062395803E-3</v>
+      </c>
+      <c r="LL2">
+        <v>5.2499180082948302E-3</v>
+      </c>
+      <c r="LM2">
+        <v>5.1579463535192096E-3</v>
+      </c>
+      <c r="LN2">
+        <v>4.7894318228849297E-3</v>
+      </c>
+      <c r="LO2">
+        <v>4.6992101176873396E-3</v>
+      </c>
+      <c r="LP2">
+        <v>4.5340471212219902E-3</v>
+      </c>
+      <c r="LQ2">
+        <v>4.4279823523382996E-3</v>
+      </c>
+      <c r="LR2">
+        <v>4.2988386275146801E-3</v>
+      </c>
+      <c r="LS2">
+        <v>4.1899330155545601E-3</v>
+      </c>
+      <c r="LT2">
+        <v>4.1144877715889299E-3</v>
+      </c>
+      <c r="LU2">
+        <v>4.1051305382115797E-3</v>
+      </c>
+      <c r="LV2">
+        <v>3.89922431349708E-3</v>
+      </c>
+      <c r="LW2">
+        <v>3.90068891556086E-3</v>
+      </c>
+      <c r="LX2">
+        <v>1.1674725366440901E-2</v>
+      </c>
+      <c r="LY2">
+        <v>3.8579622684985701E-3</v>
+      </c>
+      <c r="LZ2">
+        <v>3.7213003295914599E-3</v>
+      </c>
+      <c r="MA2">
+        <v>3.70919449965019E-3</v>
+      </c>
+      <c r="MB2">
+        <v>3.6705944577117501E-3</v>
+      </c>
+      <c r="MC2">
+        <v>3.62610465436206E-3</v>
+      </c>
+      <c r="MD2">
+        <v>3.6299567362250598E-3</v>
+      </c>
+      <c r="ME2">
+        <v>3.6228696113555E-3</v>
+      </c>
+      <c r="MF2">
+        <v>8.9684000186059498E-3</v>
+      </c>
+      <c r="MG2">
+        <v>8.0083535227884802E-3</v>
+      </c>
+      <c r="MH2">
+        <v>7.0399538813960697E-3</v>
+      </c>
+      <c r="MI2">
+        <v>6.26142791052891E-3</v>
+      </c>
+      <c r="MJ2">
+        <v>5.7572691602139799E-3</v>
+      </c>
+      <c r="MK2">
+        <v>5.3796272590127502E-3</v>
+      </c>
+      <c r="ML2">
+        <v>5.2966840864578603E-3</v>
+      </c>
+      <c r="MM2">
+        <v>5.0716321048060904E-3</v>
+      </c>
+      <c r="MN2">
+        <v>4.8775101916465396E-3</v>
+      </c>
+      <c r="MO2">
+        <v>4.7747771714122204E-3</v>
+      </c>
+      <c r="MP2">
+        <v>4.6016471533618496E-3</v>
+      </c>
+      <c r="MQ2">
+        <v>4.4053183437550601E-3</v>
+      </c>
+      <c r="MR2">
+        <v>4.3058644977698804E-3</v>
+      </c>
+      <c r="MS2">
+        <v>4.2539225786451798E-3</v>
+      </c>
+      <c r="MT2">
+        <v>4.1450929077314702E-3</v>
+      </c>
+      <c r="MU2">
+        <v>4.0993811457467099E-3</v>
+      </c>
+      <c r="MV2">
+        <v>4.0340629165776399E-3</v>
+      </c>
+      <c r="MW2">
+        <v>3.8871249017550999E-3</v>
+      </c>
+      <c r="MX2">
+        <v>1.1674728624965601E-2</v>
+      </c>
+      <c r="MY2">
+        <v>3.8936093612819702E-3</v>
+      </c>
+      <c r="MZ2">
+        <v>3.88054459845706E-3</v>
+      </c>
+      <c r="NA2">
+        <v>3.7549206169544898E-3</v>
+      </c>
+      <c r="NB2">
+        <v>3.76019924119836E-3</v>
+      </c>
+      <c r="NC2">
+        <v>3.7397507696887498E-3</v>
+      </c>
+      <c r="ND2">
+        <v>3.6238812956013501E-3</v>
+      </c>
+      <c r="NE2">
+        <v>3.67125727340273E-3</v>
+      </c>
+      <c r="NF2">
+        <v>3.6699724867594501E-3</v>
+      </c>
+      <c r="NG2">
+        <v>8.9931034895370209E-3</v>
+      </c>
+      <c r="NH2">
+        <v>8.0053804158127396E-3</v>
+      </c>
+      <c r="NI2">
+        <v>7.0170390784225697E-3</v>
+      </c>
+      <c r="NJ2">
+        <v>6.1815247509158597E-3</v>
+      </c>
+      <c r="NK2">
+        <v>5.8678492752817701E-3</v>
+      </c>
+      <c r="NL2">
+        <v>5.4186859722256502E-3</v>
+      </c>
+      <c r="NM2">
+        <v>5.3573050937313696E-3</v>
+      </c>
+      <c r="NN2">
+        <v>5.0885721428470697E-3</v>
+      </c>
+      <c r="NO2">
+        <v>4.8882242422531299E-3</v>
+      </c>
+      <c r="NP2">
+        <v>4.6464538101817299E-3</v>
+      </c>
+      <c r="NQ2">
+        <v>4.5060539389157796E-3</v>
+      </c>
+      <c r="NR2">
+        <v>4.49254854338211E-3</v>
+      </c>
+      <c r="NS2">
+        <v>4.3646592004234199E-3</v>
+      </c>
+      <c r="NT2">
+        <v>4.2776190637437298E-3</v>
+      </c>
+      <c r="NU2">
+        <v>4.2173878808570396E-3</v>
+      </c>
+      <c r="NV2">
+        <v>4.1265553176116597E-3</v>
+      </c>
+      <c r="NW2">
+        <v>4.0455247858020198E-3</v>
+      </c>
+      <c r="NX2">
+        <v>4.0677766632753899E-3</v>
+      </c>
+      <c r="NY2">
+        <v>1.16747303971193E-2</v>
+      </c>
+      <c r="NZ2">
+        <v>3.9116149303725098E-3</v>
+      </c>
+      <c r="OA2">
+        <v>3.9010797090810001E-3</v>
+      </c>
+      <c r="OB2">
+        <v>3.7929191122919501E-3</v>
+      </c>
+      <c r="OC2">
+        <v>3.8055776759241601E-3</v>
+      </c>
+      <c r="OD2">
+        <v>3.7812011765110602E-3</v>
+      </c>
+      <c r="OE2">
+        <v>3.7430196661681998E-3</v>
+      </c>
+      <c r="OF2">
+        <v>3.6390601856422199E-3</v>
+      </c>
+      <c r="OG2">
+        <v>3.6742545693566999E-3</v>
+      </c>
+      <c r="OH2">
+        <v>3.6419055454232699E-3</v>
+      </c>
+      <c r="OI2">
+        <v>8.9682831614363596E-3</v>
+      </c>
+      <c r="OJ2">
+        <v>8.0284550046949201E-3</v>
+      </c>
+      <c r="OK2">
+        <v>7.1045924376997704E-3</v>
+      </c>
+      <c r="OL2">
+        <v>6.1380648465599102E-3</v>
+      </c>
+      <c r="OM2">
+        <v>5.8336243337144796E-3</v>
+      </c>
+      <c r="ON2">
+        <v>5.5571754052640603E-3</v>
+      </c>
+      <c r="OO2">
+        <v>5.2494741207743103E-3</v>
+      </c>
+      <c r="OP2">
+        <v>5.1202877107023297E-3</v>
+      </c>
+      <c r="OQ2">
+        <v>4.8689492212892803E-3</v>
+      </c>
+      <c r="OR2">
+        <v>4.7503377384953104E-3</v>
+      </c>
+      <c r="OS2">
+        <v>4.6301046619911202E-3</v>
+      </c>
+      <c r="OT2">
+        <v>4.4058714375347502E-3</v>
+      </c>
+      <c r="OU2">
+        <v>4.3785026758918098E-3</v>
+      </c>
+      <c r="OV2">
+        <v>4.29549936489978E-3</v>
+      </c>
+      <c r="OW2">
+        <v>4.17489355173293E-3</v>
+      </c>
+      <c r="OX2">
+        <v>4.13102742135661E-3</v>
+      </c>
+      <c r="OY2">
+        <v>4.0595500607096598E-3</v>
+      </c>
+      <c r="OZ2">
+        <v>3.9864179504225002E-3</v>
+      </c>
+      <c r="PA2">
+        <v>1.1674738781312999E-2</v>
+      </c>
+      <c r="PB2">
+        <v>3.8918606671550201E-3</v>
+      </c>
+      <c r="PC2">
+        <v>3.95050411176178E-3</v>
+      </c>
+      <c r="PD2">
+        <v>3.9207240024500796E-3</v>
+      </c>
+      <c r="PE2">
+        <v>3.8057549435279599E-3</v>
+      </c>
+      <c r="PF2">
+        <v>3.8201211474223301E-3</v>
+      </c>
+      <c r="PG2">
+        <v>3.7926619305252E-3</v>
+      </c>
+      <c r="PH2">
+        <v>3.7920735961153701E-3</v>
+      </c>
+      <c r="PI2">
+        <v>3.69938726941654E-3</v>
+      </c>
+      <c r="PJ2">
+        <v>3.68170004232322E-3</v>
+      </c>
+      <c r="PK2">
+        <v>3.6368975047149799E-3</v>
+      </c>
+      <c r="PL2">
+        <v>9.0773859032233593E-3</v>
+      </c>
+      <c r="PM2">
+        <v>8.0278908228214908E-3</v>
+      </c>
+      <c r="PN2">
+        <v>7.0742950544056696E-3</v>
+      </c>
+      <c r="PO2">
+        <v>6.2624783286806098E-3</v>
+      </c>
+      <c r="PP2">
+        <v>5.7925906301188801E-3</v>
+      </c>
+      <c r="PQ2">
+        <v>5.4670237353979696E-3</v>
+      </c>
+      <c r="PR2">
+        <v>5.3457381284395698E-3</v>
+      </c>
+      <c r="PS2">
+        <v>5.0987811114059896E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BFF743-D049-428D-95BA-8A0F59E4E0C4}">
+  <dimension ref="A1:B435"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="B432" sqref="B432"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>3.58112909399802E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>3.5947724140384702E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3.5970444244966498E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>3.6143003708274798E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3.6228696113555E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>3.6238812956013501E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3.62610465436206E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>3.6276794695298698E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>3.6299567362250598E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>3.63017585490925E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>3.6321998392280499E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>3.6364799092026101E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>3.6368975047149799E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>3.6390601856422199E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>3.6419055454232699E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>3.6453853005586601E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>3.6454914164063298E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>3.6556696174898798E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>3.6611392748186599E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3.66433982807072E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>3.6682502972738302E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>3.6690628285257201E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23">
+        <v>3.6699724867594501E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>3.6705944577117501E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>3.67125727340273E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26">
+        <v>3.6719669090476098E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>3.6742545693566999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28">
+        <v>3.6743070334008198E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>3.6744396461350199E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30">
+        <v>3.6744519640041699E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31">
+        <v>3.6771143823863999E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>3.68170004232322E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>3.68557421695619E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>3.6867569455129499E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35">
+        <v>3.6902261309435299E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>3.69399453844546E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>3.69938726941654E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>3.70116156898736E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>3.7091041279426499E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>3.70919449965019E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41">
+        <v>3.7113805348921699E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>3.7141967647076899E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>3.7188680864205501E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>3.7201730100911599E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45">
+        <v>3.7213003295914599E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46">
+        <v>3.7217640246044602E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47">
+        <v>3.72569681544153E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>3.7296304840474799E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>3.73140470956308E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50">
+        <v>3.7318827025688301E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51">
+        <v>3.73840320868818E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>3.7397507696887498E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53">
+        <v>3.73978102804882E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54">
+        <v>3.7430196661681998E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>3.7486432362933502E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56">
+        <v>3.7549206169544898E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57">
+        <v>3.7562986646129701E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58">
+        <v>3.7589278264846E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59">
+        <v>3.76019924119836E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>3.7671171825599602E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61">
+        <v>3.7678529626161499E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>3.7783293471858399E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63">
+        <v>3.7812011765110602E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64">
+        <v>3.7817116381486E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65">
+        <v>3.7843222657137801E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66">
+        <v>3.7847662160098898E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>3.7920735961153701E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>3.7926619305252E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <v>3.7929191122919501E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70">
+        <v>3.7948428449661102E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71">
+        <v>3.8055776759241601E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72">
+        <v>3.8057549435279599E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73">
+        <v>3.80865479163587E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74">
+        <v>3.8089198244260301E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75">
+        <v>3.8149437395552399E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76">
+        <v>3.8201211474223301E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>3.82391471628993E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>3.8328604127266198E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79">
+        <v>3.8336770864028299E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80">
+        <v>3.8343745193751598E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81">
+        <v>3.8355011311248101E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82">
+        <v>3.8393972305915099E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83">
+        <v>3.8421492279293399E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84">
+        <v>3.8423286115042699E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85">
+        <v>3.8461146722652498E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86">
+        <v>3.8514595865231402E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87">
+        <v>3.8579622684985701E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88">
+        <v>3.8585133340855002E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89">
+        <v>3.8615968917825199E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90">
+        <v>3.8669056179951298E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91">
+        <v>3.8670482182194201E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92">
+        <v>3.8687523381670001E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>3.8716257965480602E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94">
+        <v>3.8722645576835702E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95">
+        <v>3.88054459845706E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96">
+        <v>3.88570753000223E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97">
+        <v>3.8871249017550999E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98">
+        <v>3.8894661903527E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99">
+        <v>3.8904864615536298E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100">
+        <v>3.89166377072308E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B101">
+        <v>3.8918606671550201E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102">
+        <v>3.89278815164818E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>3.8936093612819702E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104">
+        <v>3.89577014999779E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>93</v>
+      </c>
+      <c r="B105">
+        <v>3.89922431349708E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>90</v>
+      </c>
+      <c r="B106">
+        <v>3.8996139274680699E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107">
+        <v>3.90068891556086E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108">
+        <v>3.9010797090810001E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109">
+        <v>3.90261887326476E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110">
+        <v>3.9060223121352099E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111">
+        <v>3.9073275703127297E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>3.9116149303725098E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113">
+        <v>3.9147736580324704E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114">
+        <v>3.9191996716643196E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>135</v>
+      </c>
+      <c r="B115">
+        <v>3.9207240024500796E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116">
+        <v>3.9243011482125497E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117">
+        <v>3.9255990804805E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118">
+        <v>3.9327415137709598E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>94</v>
+      </c>
+      <c r="B119">
+        <v>3.9356786364524296E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120">
+        <v>3.9394755246304801E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>59</v>
+      </c>
+      <c r="B121">
+        <v>3.9455588471735198E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122">
+        <v>3.9496722206685299E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123">
+        <v>3.95050411176178E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>95</v>
+      </c>
+      <c r="B124">
+        <v>3.97727176891701E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>85</v>
+      </c>
+      <c r="B125">
+        <v>3.9864179504225002E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126">
+        <v>3.9893457727079498E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127">
+        <v>3.9934588217536903E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128">
+        <v>3.9953220549342298E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>81</v>
+      </c>
+      <c r="B129">
+        <v>3.9971920079879299E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>204</v>
+      </c>
+      <c r="B130">
+        <v>4.0059531877548503E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>100</v>
+      </c>
+      <c r="B131">
+        <v>4.00735409192551E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>103</v>
+      </c>
+      <c r="B132">
+        <v>4.0080288664475503E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>163</v>
+      </c>
+      <c r="B133">
+        <v>4.0245843493587003E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>4.02477675467425E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>258</v>
+      </c>
+      <c r="B135">
+        <v>4.0280667563459497E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>130</v>
+      </c>
+      <c r="B136">
+        <v>4.0339535849816801E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>121</v>
+      </c>
+      <c r="B137">
+        <v>4.0340629165776399E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>176</v>
+      </c>
+      <c r="B138">
+        <v>4.0455247858020198E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>104</v>
+      </c>
+      <c r="B139">
+        <v>4.0455273806412799E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140">
+        <v>4.0471208051627901E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>108</v>
+      </c>
+      <c r="B141">
+        <v>4.0495600690250502E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142">
+        <v>4.0549004996227999E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143">
+        <v>4.0595500607096598E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144">
+        <v>4.0608821561032302E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>99</v>
+      </c>
+      <c r="B145">
+        <v>4.0629951128328297E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>139</v>
+      </c>
+      <c r="B146">
+        <v>4.0631857452859297E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>177</v>
+      </c>
+      <c r="B147">
+        <v>4.0677766632753899E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>73</v>
+      </c>
+      <c r="B148">
+        <v>4.0702533663490702E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149">
+        <v>4.0721564510370198E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150">
+        <v>4.0748873159321998E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>201</v>
+      </c>
+      <c r="B151">
+        <v>4.0766072093834198E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>172</v>
+      </c>
+      <c r="B152">
+        <v>4.0861010948039199E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153">
+        <v>4.0955281864436298E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>210</v>
+      </c>
+      <c r="B154">
+        <v>4.0993811457467099E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>194</v>
+      </c>
+      <c r="B155">
+        <v>4.1003150266759603E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>145</v>
+      </c>
+      <c r="B156">
+        <v>4.1051305382115797E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>115</v>
+      </c>
+      <c r="B157">
+        <v>4.1097711075403203E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158">
+        <v>4.1117463978798501E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>192</v>
+      </c>
+      <c r="B159">
+        <v>4.1144877715889299E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>182</v>
+      </c>
+      <c r="B160">
+        <v>4.1159136301772096E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>137</v>
+      </c>
+      <c r="B161">
+        <v>4.1265553176116597E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>141</v>
+      </c>
+      <c r="B162">
+        <v>4.1304959418133596E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>138</v>
+      </c>
+      <c r="B163">
+        <v>4.13102742135661E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>129</v>
+      </c>
+      <c r="B164">
+        <v>4.1450929077314702E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165">
+        <v>4.1512590954837997E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166">
+        <v>4.1513299957736697E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167">
+        <v>4.15564680650269E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>147</v>
+      </c>
+      <c r="B168">
+        <v>4.1559144706172597E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>151</v>
+      </c>
+      <c r="B169">
+        <v>4.17489355173293E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>148</v>
+      </c>
+      <c r="B170">
+        <v>4.1797415834140903E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>4.1826839132132103E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>196</v>
+      </c>
+      <c r="B172">
+        <v>4.1837043152443201E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>165</v>
+      </c>
+      <c r="B173">
+        <v>4.18799670029627E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>171</v>
+      </c>
+      <c r="B174">
+        <v>4.1891367624178897E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>4.1899330155545601E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>164</v>
+      </c>
+      <c r="B176">
+        <v>4.1937307083827497E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177">
+        <v>4.1940701129019502E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>140</v>
+      </c>
+      <c r="B178">
+        <v>4.2007075729893796E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179">
+        <v>4.2173878808570396E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>136</v>
+      </c>
+      <c r="B180">
+        <v>4.2229316396482997E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>195</v>
+      </c>
+      <c r="B181">
+        <v>4.2256021091096104E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>4.2333250830166001E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>123</v>
+      </c>
+      <c r="B183">
+        <v>4.2377035825154896E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>166</v>
+      </c>
+      <c r="B184">
+        <v>4.2432864014104697E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>174</v>
+      </c>
+      <c r="B185">
+        <v>4.2476448617102596E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>255</v>
+      </c>
+      <c r="B186">
+        <v>4.2502493242610904E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>169</v>
+      </c>
+      <c r="B187">
+        <v>4.2539225786451798E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188">
+        <v>4.2565696492132803E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>168</v>
+      </c>
+      <c r="B189">
+        <v>4.2582332250923997E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>270</v>
+      </c>
+      <c r="B190">
+        <v>4.2683273311687302E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>228</v>
+      </c>
+      <c r="B191">
+        <v>4.2697211562690799E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>185</v>
+      </c>
+      <c r="B192">
+        <v>4.2707180366799904E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>183</v>
+      </c>
+      <c r="B193">
+        <v>4.2776190637437298E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>162</v>
+      </c>
+      <c r="B194">
+        <v>4.2848067520928198E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>234</v>
+      </c>
+      <c r="B195">
+        <v>4.2877059182611999E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196">
+        <v>4.2890768920077404E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>149</v>
+      </c>
+      <c r="B197">
+        <v>4.29549936489978E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>154</v>
+      </c>
+      <c r="B198">
+        <v>4.2988386275146801E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>132</v>
+      </c>
+      <c r="B199">
+        <v>4.2999074847250296E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>217</v>
+      </c>
+      <c r="B200">
+        <v>4.3028328605926001E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>212</v>
+      </c>
+      <c r="B201">
+        <v>4.3058644977698804E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>272</v>
+      </c>
+      <c r="B202">
+        <v>4.3085007714615802E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>158</v>
+      </c>
+      <c r="B203">
+        <v>4.3133313441981501E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>265</v>
+      </c>
+      <c r="B204">
+        <v>4.3324855002779498E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>214</v>
+      </c>
+      <c r="B205">
+        <v>4.3410303832081198E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>246</v>
+      </c>
+      <c r="B206">
+        <v>4.3554970724531796E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>4.3580372122961602E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>187</v>
+      </c>
+      <c r="B208">
+        <v>4.3646592004234199E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>160</v>
+      </c>
+      <c r="B209">
+        <v>4.3646695552238398E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210">
+        <v>4.3683810810881E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>178</v>
+      </c>
+      <c r="B211">
+        <v>4.3693833030677897E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>243</v>
+      </c>
+      <c r="B212">
+        <v>4.3744114384927204E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>261</v>
+      </c>
+      <c r="B213">
+        <v>4.3745303146348197E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>239</v>
+      </c>
+      <c r="B214">
+        <v>4.3780468449078199E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>269</v>
+      </c>
+      <c r="B215">
+        <v>4.3785026758918098E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>190</v>
+      </c>
+      <c r="B216">
+        <v>4.3844235167014396E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>238</v>
+      </c>
+      <c r="B217">
+        <v>4.3909889039671799E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>209</v>
+      </c>
+      <c r="B218">
+        <v>4.4034434464306103E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219">
+        <v>4.4053183437550601E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>186</v>
+      </c>
+      <c r="B220">
+        <v>4.4058714375347502E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>78</v>
+      </c>
+      <c r="B221">
+        <v>4.4090530862424303E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>215</v>
+      </c>
+      <c r="B222">
+        <v>4.4091970583188698E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>235</v>
+      </c>
+      <c r="B223">
+        <v>4.41027261255501E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>213</v>
+      </c>
+      <c r="B224">
+        <v>4.4103681920082301E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>202</v>
+      </c>
+      <c r="B225">
+        <v>4.4199313481870098E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>198</v>
+      </c>
+      <c r="B226">
+        <v>4.4279823523382996E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>188</v>
+      </c>
+      <c r="B227">
+        <v>4.4311391901251003E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>189</v>
+      </c>
+      <c r="B228">
+        <v>4.4335652787636601E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>225</v>
+      </c>
+      <c r="B229">
+        <v>4.4351187560202699E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>4.4395187849290401E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>237</v>
+      </c>
+      <c r="B231">
+        <v>4.4440250737438703E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>203</v>
+      </c>
+      <c r="B232">
+        <v>4.4445272090690904E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>220</v>
+      </c>
+      <c r="B233">
+        <v>4.4620535670374202E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>4.48825926010694E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>267</v>
+      </c>
+      <c r="B235">
+        <v>4.4919967716376798E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>226</v>
+      </c>
+      <c r="B236">
+        <v>4.49254854338211E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>231</v>
+      </c>
+      <c r="B237">
+        <v>4.4933192059957404E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>259</v>
+      </c>
+      <c r="B238">
+        <v>4.4942014203455298E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>219</v>
+      </c>
+      <c r="B239">
+        <v>4.49679514812265E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>207</v>
+      </c>
+      <c r="B240">
+        <v>4.5060539389157796E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>233</v>
+      </c>
+      <c r="B241">
+        <v>4.5211312168583701E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>218</v>
+      </c>
+      <c r="B242">
+        <v>4.5221194211746201E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>275</v>
+      </c>
+      <c r="B243">
+        <v>4.5340471212219902E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>4.5358220245374399E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>249</v>
+      </c>
+      <c r="B245">
+        <v>4.5456020364546901E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>252</v>
+      </c>
+      <c r="B246">
+        <v>4.5534771406957799E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>240</v>
+      </c>
+      <c r="B247">
+        <v>4.55489259651561E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>277</v>
+      </c>
+      <c r="B248">
+        <v>4.5588672109393097E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>263</v>
+      </c>
+      <c r="B249">
+        <v>4.5621463014942397E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>274</v>
+      </c>
+      <c r="B250">
+        <v>4.5695767234101396E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>208</v>
+      </c>
+      <c r="B251">
+        <v>4.57946606634849E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>216</v>
+      </c>
+      <c r="B252">
+        <v>4.5891367376919203E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>223</v>
+      </c>
+      <c r="B253">
+        <v>4.5923765025782902E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>302</v>
+      </c>
+      <c r="B254">
+        <v>4.5939536568691697E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>197</v>
+      </c>
+      <c r="B255">
+        <v>4.6016471533618496E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>260</v>
+      </c>
+      <c r="B256">
+        <v>4.6017013748351002E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>236</v>
+      </c>
+      <c r="B257">
+        <v>4.6021966159842101E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>280</v>
+      </c>
+      <c r="B258">
+        <v>4.6068851210676097E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>254</v>
+      </c>
+      <c r="B259">
+        <v>4.6142322495165899E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>253</v>
+      </c>
+      <c r="B260">
+        <v>4.6215934529847003E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>241</v>
+      </c>
+      <c r="B261">
+        <v>4.6301046619911202E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>250</v>
+      </c>
+      <c r="B262">
+        <v>4.6384785309467299E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>221</v>
+      </c>
+      <c r="B263">
+        <v>4.6461218787866498E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>257</v>
+      </c>
+      <c r="B264">
+        <v>4.6464538101817299E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>271</v>
+      </c>
+      <c r="B265">
+        <v>4.6563376093247E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>288</v>
+      </c>
+      <c r="B266">
+        <v>4.6612981915950301E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>247</v>
+      </c>
+      <c r="B267">
+        <v>4.6667802115378902E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>245</v>
+      </c>
+      <c r="B268">
+        <v>4.6795558206582698E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>285</v>
+      </c>
+      <c r="B269">
+        <v>4.68959387116776E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>4.6992101176873396E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>287</v>
+      </c>
+      <c r="B271">
+        <v>4.70276663407027E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>299</v>
+      </c>
+      <c r="B272">
+        <v>4.7146654298044002E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>262</v>
+      </c>
+      <c r="B273">
+        <v>4.7232901749344001E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>284</v>
+      </c>
+      <c r="B274">
+        <v>4.72546412615965E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>256</v>
+      </c>
+      <c r="B275">
+        <v>4.7268360796071801E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>4.7502440222449401E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>266</v>
+      </c>
+      <c r="B277">
+        <v>4.7503377384953104E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>315</v>
+      </c>
+      <c r="B278">
+        <v>4.7545540568913504E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>248</v>
+      </c>
+      <c r="B279">
+        <v>4.7747771714122204E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>230</v>
+      </c>
+      <c r="B280">
+        <v>4.7757040999149699E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>278</v>
+      </c>
+      <c r="B281">
+        <v>4.7894318228849297E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>300</v>
+      </c>
+      <c r="B282">
+        <v>4.7947681799251898E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>273</v>
+      </c>
+      <c r="B283">
+        <v>4.7954117195581998E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>4.7972674274168597E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>205</v>
+      </c>
+      <c r="B285">
+        <v>4.7993778249118997E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>290</v>
+      </c>
+      <c r="B286">
+        <v>4.81953290933797E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>264</v>
+      </c>
+      <c r="B287">
+        <v>4.84878127307449E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>279</v>
+      </c>
+      <c r="B288">
+        <v>4.8689492212892803E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>296</v>
+      </c>
+      <c r="B289">
+        <v>4.8774085431790501E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>305</v>
+      </c>
+      <c r="B290">
+        <v>4.8775101916465396E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>227</v>
+      </c>
+      <c r="B291">
+        <v>4.8823819174818803E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>282</v>
+      </c>
+      <c r="B292">
+        <v>4.8882242422531299E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>304</v>
+      </c>
+      <c r="B293">
+        <v>4.8921800178387499E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>319</v>
+      </c>
+      <c r="B294">
+        <v>4.8963093415627396E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>306</v>
+      </c>
+      <c r="B295">
+        <v>4.9014007633039099E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>345</v>
+      </c>
+      <c r="B296">
+        <v>4.9086198612784196E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>317</v>
+      </c>
+      <c r="B297">
+        <v>4.9167336702488499E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>314</v>
+      </c>
+      <c r="B298">
+        <v>4.9272080190837196E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>244</v>
+      </c>
+      <c r="B299">
+        <v>4.9322134482981802E-3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>281</v>
+      </c>
+      <c r="B300">
+        <v>4.9904320567695903E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>329</v>
+      </c>
+      <c r="B301">
+        <v>4.9964875978158897E-3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>289</v>
+      </c>
+      <c r="B302">
+        <v>5.00415482367275E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>308</v>
+      </c>
+      <c r="B303">
+        <v>5.0142578369868898E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>318</v>
+      </c>
+      <c r="B304">
+        <v>5.0232388265735997E-3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>292</v>
+      </c>
+      <c r="B305">
+        <v>5.04511588166683E-3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>339</v>
+      </c>
+      <c r="B306">
+        <v>5.0637452579170104E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>301</v>
+      </c>
+      <c r="B307">
+        <v>5.0716321048060904E-3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>311</v>
+      </c>
+      <c r="B308">
+        <v>5.0885721428470697E-3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>291</v>
+      </c>
+      <c r="B309">
+        <v>5.0987811114059896E-3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>316</v>
+      </c>
+      <c r="B310">
+        <v>5.1202877107023297E-3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>5.14630021782609E-3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>251</v>
+      </c>
+      <c r="B312">
+        <v>5.1475659978535496E-3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>342</v>
+      </c>
+      <c r="B313">
+        <v>5.1579463535192096E-3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>333</v>
+      </c>
+      <c r="B314">
+        <v>5.16603319787696E-3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>297</v>
+      </c>
+      <c r="B315">
+        <v>5.1781291032340897E-3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>325</v>
+      </c>
+      <c r="B316">
+        <v>5.1860957187163E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>298</v>
+      </c>
+      <c r="B317">
+        <v>5.2256127289932799E-3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>293</v>
+      </c>
+      <c r="B318">
+        <v>5.2375100407871704E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>321</v>
+      </c>
+      <c r="B319">
+        <v>5.2386746178139602E-3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>322</v>
+      </c>
+      <c r="B320">
+        <v>5.2438123641138298E-3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>328</v>
+      </c>
+      <c r="B321">
+        <v>5.2494741207743103E-3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322">
+        <v>5.2495698189376997E-3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>312</v>
+      </c>
+      <c r="B323">
+        <v>5.2499180082948302E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>310</v>
+      </c>
+      <c r="B324">
+        <v>5.2547000877595602E-3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>303</v>
+      </c>
+      <c r="B325">
+        <v>5.26996536583948E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>294</v>
+      </c>
+      <c r="B326">
+        <v>5.2761451454307702E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>307</v>
+      </c>
+      <c r="B327">
+        <v>5.2956786999055301E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>335</v>
+      </c>
+      <c r="B328">
+        <v>5.2966840864578603E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>324</v>
+      </c>
+      <c r="B329">
+        <v>5.3057437170406603E-3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>295</v>
+      </c>
+      <c r="B330">
+        <v>5.3457381284395698E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>336</v>
+      </c>
+      <c r="B331">
+        <v>5.3573050937313696E-3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>320</v>
+      </c>
+      <c r="B332">
+        <v>5.3710384737347596E-3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>343</v>
+      </c>
+      <c r="B333">
+        <v>5.3722739886585399E-3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>337</v>
+      </c>
+      <c r="B334">
+        <v>5.3796272590127502E-3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>286</v>
+      </c>
+      <c r="B335">
+        <v>5.3834385467974996E-3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>341</v>
+      </c>
+      <c r="B336">
+        <v>5.3948281291395497E-3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>371</v>
+      </c>
+      <c r="B337">
+        <v>5.39960727155059E-3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>344</v>
+      </c>
+      <c r="B338">
+        <v>5.4106606357003598E-3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>356</v>
+      </c>
+      <c r="B339">
+        <v>5.4186859722256502E-3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>326</v>
+      </c>
+      <c r="B340">
+        <v>5.4566170419690103E-3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>338</v>
+      </c>
+      <c r="B341">
+        <v>5.4670237353979696E-3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>334</v>
+      </c>
+      <c r="B342">
+        <v>5.4784758062395803E-3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>327</v>
+      </c>
+      <c r="B343">
+        <v>5.5229893818528296E-3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>332</v>
+      </c>
+      <c r="B344">
+        <v>5.5281648030436701E-3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>346</v>
+      </c>
+      <c r="B345">
+        <v>5.53035315050294E-3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>340</v>
+      </c>
+      <c r="B346">
+        <v>5.5417217566786497E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>353</v>
+      </c>
+      <c r="B347">
+        <v>5.5425631773101097E-3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>330</v>
+      </c>
+      <c r="B348">
+        <v>5.5571754052640603E-3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349">
+        <v>5.5722537815938297E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>331</v>
+      </c>
+      <c r="B350">
+        <v>5.6398934593674503E-3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>5.6714376921556198E-3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>5.69027623812838E-3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>348</v>
+      </c>
+      <c r="B353">
+        <v>5.7154291385619902E-3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>361</v>
+      </c>
+      <c r="B354">
+        <v>5.7572691602139799E-3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>347</v>
+      </c>
+      <c r="B355">
+        <v>5.7903196096659596E-3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356">
+        <v>5.7925906301188801E-3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357">
+        <v>5.8241811062669504E-3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>355</v>
+      </c>
+      <c r="B358">
+        <v>5.8336243337144796E-3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>349</v>
+      </c>
+      <c r="B359">
+        <v>5.8678492752817701E-3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>372</v>
+      </c>
+      <c r="B360">
+        <v>5.8713015592403699E-3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>5.9090200632007902E-3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>354</v>
+      </c>
+      <c r="B362">
+        <v>5.9153295618665797E-3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>360</v>
+      </c>
+      <c r="B363">
+        <v>5.9294268398514399E-3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>366</v>
+      </c>
+      <c r="B364">
+        <v>5.9393968220033001E-3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>5.9409782152134204E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>370</v>
+      </c>
+      <c r="B366">
+        <v>5.9523851260831796E-3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>368</v>
+      </c>
+      <c r="B367">
+        <v>6.1231907285543702E-3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>364</v>
+      </c>
+      <c r="B368">
+        <v>6.1243499285397601E-3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>6.1380648465599102E-3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>378</v>
+      </c>
+      <c r="B370">
+        <v>6.1498869094970604E-3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>373</v>
+      </c>
+      <c r="B371">
+        <v>6.1651704796814796E-3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>365</v>
+      </c>
+      <c r="B372">
+        <v>6.1815247509158597E-3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>313</v>
+      </c>
+      <c r="B373">
+        <v>6.1987578644430597E-3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>382</v>
+      </c>
+      <c r="B374">
+        <v>6.26142791052891E-3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375">
+        <v>6.2624783286806098E-3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>362</v>
+      </c>
+      <c r="B376">
+        <v>6.2734833220726696E-3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>384</v>
+      </c>
+      <c r="B377">
+        <v>6.2744971483976097E-3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>6.3662366878478004E-3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>374</v>
+      </c>
+      <c r="B379">
+        <v>6.41723349146803E-3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>376</v>
+      </c>
+      <c r="B380">
+        <v>6.4424502677184999E-3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>6.4892534603845503E-3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>369</v>
+      </c>
+      <c r="B382">
+        <v>6.6456495069731796E-3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>399</v>
+      </c>
+      <c r="B383">
+        <v>6.7649184898611603E-3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>389</v>
+      </c>
+      <c r="B384">
+        <v>6.9581253616258004E-3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>387</v>
+      </c>
+      <c r="B385">
+        <v>7.0118718713038999E-3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>393</v>
+      </c>
+      <c r="B386">
+        <v>7.0170390784225697E-3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>388</v>
+      </c>
+      <c r="B387">
+        <v>7.0349078416975103E-3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>385</v>
+      </c>
+      <c r="B388">
+        <v>7.0399538813960697E-3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>390</v>
+      </c>
+      <c r="B389">
+        <v>7.0742950544056696E-3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>396</v>
+      </c>
+      <c r="B390">
+        <v>7.0968570007037702E-3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>386</v>
+      </c>
+      <c r="B391">
+        <v>7.09736686908092E-3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>395</v>
+      </c>
+      <c r="B392">
+        <v>7.1045924376997704E-3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>381</v>
+      </c>
+      <c r="B393">
+        <v>7.1297389619346101E-3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>397</v>
+      </c>
+      <c r="B394">
+        <v>7.1610539520997104E-3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>392</v>
+      </c>
+      <c r="B395">
+        <v>7.1629922190449002E-3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>7.2020243068418796E-3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>391</v>
+      </c>
+      <c r="B397">
+        <v>7.2377794625461999E-3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>380</v>
+      </c>
+      <c r="B398">
+        <v>7.3273839308379699E-3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>7.4800587011661602E-3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>383</v>
+      </c>
+      <c r="B400">
+        <v>7.8375768900863906E-3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>7.9352162310153095E-3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>7.9545413536587194E-3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>408</v>
+      </c>
+      <c r="B403">
+        <v>7.9787531191264794E-3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>407</v>
+      </c>
+      <c r="B404">
+        <v>8.0053804158127396E-3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>409</v>
+      </c>
+      <c r="B405">
+        <v>8.0056315324775595E-3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>402</v>
+      </c>
+      <c r="B406">
+        <v>8.0083535227884802E-3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>8.0118553291034893E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>403</v>
+      </c>
+      <c r="B408">
+        <v>8.0278908228214908E-3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>404</v>
+      </c>
+      <c r="B409">
+        <v>8.0284550046949201E-3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>406</v>
+      </c>
+      <c r="B410">
+        <v>8.0373134260215001E-3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411">
+        <v>8.0548079414554993E-3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>8.0875849026964593E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>8.8917390576257298E-3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>416</v>
+      </c>
+      <c r="B414">
+        <v>8.95379161708648E-3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>419</v>
+      </c>
+      <c r="B415">
+        <v>8.9561442778733503E-3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>420</v>
+      </c>
+      <c r="B416">
+        <v>8.9681139127357999E-3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>8.9681660081467798E-3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>414</v>
+      </c>
+      <c r="B418">
+        <v>8.9682831614363596E-3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>8.9684000186059498E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>424</v>
+      </c>
+      <c r="B420">
+        <v>8.9684957055789893E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>413</v>
+      </c>
+      <c r="B421">
+        <v>8.9710541753458897E-3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>417</v>
+      </c>
+      <c r="B422">
+        <v>8.9931034895370209E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>9.0640556883944401E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>421</v>
+      </c>
+      <c r="B424">
+        <v>9.0773859032233593E-3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>1.0275856657286499E-2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>1.0959572482494601E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>431</v>
+      </c>
+      <c r="B427">
+        <v>1.1428389406506799E-2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>1.1528578541304599E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>430</v>
+      </c>
+      <c r="B429">
+        <v>1.16747195272052E-2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>433</v>
+      </c>
+      <c r="B430">
+        <v>1.16747227370241E-2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>428</v>
+      </c>
+      <c r="B431">
+        <v>1.1674723791060399E-2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>426</v>
+      </c>
+      <c r="B432">
+        <v>1.1674725366440901E-2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>429</v>
+      </c>
+      <c r="B433">
+        <v>1.1674728624965601E-2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434">
+        <v>1.16747303971193E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>432</v>
+      </c>
+      <c r="B435">
+        <v>1.1674738781312999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B435">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>